--- a/finish.xlsx
+++ b/finish.xlsx
@@ -1,43 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="finish"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="finish" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -45,32 +45,94 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -79,10 +141,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -120,71 +182,69 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -208,53 +268,54 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="51000"/>
+                <a:shade val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
+                <a:shade val="93000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="94000"/>
+                <a:shade val="94000"/>
                 <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="9500"/>
+              <a:shade val="95000"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -264,7 +325,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -273,7 +334,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -282,7 +343,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -290,10 +351,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -322,7 +383,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="20000"/>
+                <a:shade val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -335,12 +396,13 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
                 <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
+                <a:shade val="30000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -358,33 +420,41 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
-    <outlinePr summaryBelow="0"/>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" style="1" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="1" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="1" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="1" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="1" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="1" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="1" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="1" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="1" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-  </cols>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>model</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ResUNet</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ResUNet</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/finish.xlsx
+++ b/finish.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,48 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ACM</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ResUNet</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ALCNet</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>AGPCNet</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ISTDU-Net</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ACM</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/finish.xlsx
+++ b/finish.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -496,6 +496,41 @@
         </is>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ISTDU_Net</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>res_UNet</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>res_UNet</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>DNANet</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>SDecNet</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/finish.xlsx
+++ b/finish.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A14"/>
+  <dimension ref="A1:A15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -531,6 +531,13 @@
         </is>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>DATransNet</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/finish.xlsx
+++ b/finish.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A15"/>
+  <dimension ref="A1:A16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -538,6 +538,13 @@
         </is>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>DTUM_res_UNet</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/finish.xlsx
+++ b/finish.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="finish" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="finish" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A16"/>
+  <dimension ref="A1:A17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -545,6 +545,13 @@
         </is>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>SDecNet</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/finish.xlsx
+++ b/finish.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A17"/>
+  <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -552,6 +552,27 @@
         </is>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>DTUM_ACM</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>SDecNet</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>RFR_res_UNet</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/finish.xlsx
+++ b/finish.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A20"/>
+  <dimension ref="A1:A21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,6 +573,13 @@
         </is>
       </c>
     </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>res_UNet</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/finish.xlsx
+++ b/finish.xlsx
@@ -1,43 +1,436 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView windowWidth="27750" windowHeight="12525"/>
   </bookViews>
   <sheets>
-    <sheet name="finish" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="finish" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
+  <si>
+    <t>model</t>
+  </si>
+  <si>
+    <t>ResUNet</t>
+  </si>
+  <si>
+    <t>ACM</t>
+  </si>
+  <si>
+    <t>ALCNet</t>
+  </si>
+  <si>
+    <t>AGPCNet</t>
+  </si>
+  <si>
+    <t>ISTDU-Net</t>
+  </si>
+  <si>
+    <t>ISTDU_Net</t>
+  </si>
+  <si>
+    <t>res_UNet</t>
+  </si>
+  <si>
+    <t>DNANet</t>
+  </si>
+  <si>
+    <t>SDecNet</t>
+  </si>
+  <si>
+    <t>DATransNet</t>
+  </si>
+  <si>
+    <t>DTUM_res_UNet</t>
+  </si>
+  <si>
+    <t>DTUM_ACM</t>
+  </si>
+  <si>
+    <t>RFR_res_UNet</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
-    <fill>
-      <patternFill/>
+  <fills count="33">
+    <fill>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -46,93 +439,329 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+  <cellStyles count="49">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -415,172 +1044,142 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>model</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>ResUNet</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>ResUNet</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>ACM</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>ResUNet</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>ALCNet</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>AGPCNet</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>ISTDU-Net</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>ACM</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>ISTDU_Net</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>res_UNet</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>res_UNet</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>DNANet</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>SDecNet</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>DATransNet</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>DTUM_res_UNet</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>SDecNet</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>DTUM_ACM</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>SDecNet</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>RFR_res_UNet</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>res_UNet</t>
-        </is>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/finish.xlsx
+++ b/finish.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A26"/>
+  <dimension ref="A1:A29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -615,6 +615,27 @@
         </is>
       </c>
     </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>DTUM_res_UNet</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>RFR_res_UNet</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>DTUM_DATransNet</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/finish.xlsx
+++ b/finish.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A29"/>
+  <dimension ref="A1:A33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -636,6 +636,34 @@
         </is>
       </c>
     </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>SDecNet</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>RFR_SDecNet</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>res_UNet</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>STDecNet</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/finish.xlsx
+++ b/finish.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A33"/>
+  <dimension ref="A1:A42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -664,6 +664,69 @@
         </is>
       </c>
     </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>STDecNet</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>STDecNet</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>STDecNet</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>STDecNet</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>STDecNet</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>STDecNet</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>STDecNet</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>STDecNet</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>STDecNet</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/finish.xlsx
+++ b/finish.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A42"/>
+  <dimension ref="A1:A44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -727,6 +727,20 @@
         </is>
       </c>
     </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>STDecNet</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>STDecNet</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/finish.xlsx
+++ b/finish.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A44"/>
+  <dimension ref="A1:B45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,6 +439,11 @@
           <t>model</t>
         </is>
       </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>epochs</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -446,6 +451,7 @@
           <t>ResUNet</t>
         </is>
       </c>
+      <c r="B2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -453,6 +459,7 @@
           <t>ResUNet</t>
         </is>
       </c>
+      <c r="B3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -460,6 +467,7 @@
           <t>ACM</t>
         </is>
       </c>
+      <c r="B4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -467,6 +475,7 @@
           <t>ResUNet</t>
         </is>
       </c>
+      <c r="B5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -474,6 +483,7 @@
           <t>ALCNet</t>
         </is>
       </c>
+      <c r="B6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -481,6 +491,7 @@
           <t>AGPCNet</t>
         </is>
       </c>
+      <c r="B7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -488,6 +499,7 @@
           <t>ISTDU-Net</t>
         </is>
       </c>
+      <c r="B8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -495,6 +507,7 @@
           <t>ACM</t>
         </is>
       </c>
+      <c r="B9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -502,6 +515,7 @@
           <t>ISTDU_Net</t>
         </is>
       </c>
+      <c r="B10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -509,6 +523,7 @@
           <t>res_UNet</t>
         </is>
       </c>
+      <c r="B11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -516,6 +531,7 @@
           <t>res_UNet</t>
         </is>
       </c>
+      <c r="B12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -523,6 +539,7 @@
           <t>DNANet</t>
         </is>
       </c>
+      <c r="B13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -530,6 +547,7 @@
           <t>SDecNet</t>
         </is>
       </c>
+      <c r="B14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -537,6 +555,7 @@
           <t>DATransNet</t>
         </is>
       </c>
+      <c r="B15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -544,6 +563,7 @@
           <t>DTUM_res_UNet</t>
         </is>
       </c>
+      <c r="B16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -551,6 +571,7 @@
           <t>SDecNet</t>
         </is>
       </c>
+      <c r="B17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -558,6 +579,7 @@
           <t>DTUM_ACM</t>
         </is>
       </c>
+      <c r="B18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -565,6 +587,7 @@
           <t>SDecNet</t>
         </is>
       </c>
+      <c r="B19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -572,6 +595,7 @@
           <t>RFR_res_UNet</t>
         </is>
       </c>
+      <c r="B20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -579,6 +603,7 @@
           <t>res_UNet</t>
         </is>
       </c>
+      <c r="B21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -586,6 +611,7 @@
           <t>RFR_res_UNet</t>
         </is>
       </c>
+      <c r="B22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -593,6 +619,7 @@
           <t>DTUM_res_UNet</t>
         </is>
       </c>
+      <c r="B23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -600,6 +627,7 @@
           <t>SDecNet</t>
         </is>
       </c>
+      <c r="B24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -607,6 +635,7 @@
           <t>ISTDU_Net</t>
         </is>
       </c>
+      <c r="B25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -614,6 +643,7 @@
           <t>DATransNet</t>
         </is>
       </c>
+      <c r="B26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -621,6 +651,7 @@
           <t>DTUM_res_UNet</t>
         </is>
       </c>
+      <c r="B27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -628,6 +659,7 @@
           <t>RFR_res_UNet</t>
         </is>
       </c>
+      <c r="B28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -635,6 +667,7 @@
           <t>DTUM_DATransNet</t>
         </is>
       </c>
+      <c r="B29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -642,6 +675,7 @@
           <t>SDecNet</t>
         </is>
       </c>
+      <c r="B30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -649,6 +683,7 @@
           <t>RFR_SDecNet</t>
         </is>
       </c>
+      <c r="B31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -656,6 +691,7 @@
           <t>res_UNet</t>
         </is>
       </c>
+      <c r="B32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -663,6 +699,7 @@
           <t>STDecNet</t>
         </is>
       </c>
+      <c r="B33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -670,6 +707,7 @@
           <t>STDecNet</t>
         </is>
       </c>
+      <c r="B34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -677,6 +715,7 @@
           <t>STDecNet</t>
         </is>
       </c>
+      <c r="B35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -684,6 +723,7 @@
           <t>STDecNet</t>
         </is>
       </c>
+      <c r="B36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -691,6 +731,7 @@
           <t>STDecNet</t>
         </is>
       </c>
+      <c r="B37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -698,6 +739,7 @@
           <t>STDecNet</t>
         </is>
       </c>
+      <c r="B38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -705,6 +747,7 @@
           <t>STDecNet</t>
         </is>
       </c>
+      <c r="B39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -712,6 +755,7 @@
           <t>STDecNet</t>
         </is>
       </c>
+      <c r="B40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -719,6 +763,7 @@
           <t>STDecNet</t>
         </is>
       </c>
+      <c r="B41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -726,6 +771,7 @@
           <t>STDecNet</t>
         </is>
       </c>
+      <c r="B42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -733,12 +779,24 @@
           <t>STDecNet</t>
         </is>
       </c>
+      <c r="B43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
           <t>STDecNet</t>
         </is>
+      </c>
+      <c r="B44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>res_UNet</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/finish.xlsx
+++ b/finish.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -799,6 +799,14 @@
         <v>1</v>
       </c>
     </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>STDecNet</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/finish.xlsx
+++ b/finish.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B46"/>
+  <dimension ref="A1:B50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -807,6 +807,38 @@
       </c>
       <c r="B46" t="inlineStr"/>
     </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>res_UNet</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>DATransNet</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>SDecNet</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>DTUM_SDecNet</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/finish.xlsx
+++ b/finish.xlsx
@@ -17,16 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,21 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B50"/>
+  <dimension ref="A1:B55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,12 +422,12 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>model</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>epochs</t>
         </is>
@@ -838,6 +826,46 @@
         </is>
       </c>
       <c r="B50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>res_UNet</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>res_UNet</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>ISTDU_Net</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>DATransNet</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>SDecNet</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/finish.xlsx
+++ b/finish.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B55"/>
+  <dimension ref="A1:B59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -867,6 +867,38 @@
       </c>
       <c r="B55" t="inlineStr"/>
     </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>SDecNet</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>DTUM_SDecNet</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>DTUM_res_UNet</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>RFR_res_UNet</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/finish.xlsx
+++ b/finish.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B59"/>
+  <dimension ref="A1:C62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -432,6 +432,11 @@
           <t>epochs</t>
         </is>
       </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>dataset</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -440,6 +445,7 @@
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -448,6 +454,7 @@
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -456,6 +463,7 @@
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -464,6 +472,7 @@
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -472,6 +481,7 @@
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -480,6 +490,7 @@
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -488,6 +499,7 @@
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -496,6 +508,7 @@
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -504,6 +517,7 @@
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -512,6 +526,7 @@
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -520,6 +535,7 @@
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -528,6 +544,7 @@
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -536,6 +553,7 @@
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -544,6 +562,7 @@
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -552,6 +571,7 @@
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -560,6 +580,7 @@
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -568,6 +589,7 @@
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -576,6 +598,7 @@
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -584,6 +607,7 @@
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -592,6 +616,7 @@
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -600,6 +625,7 @@
         </is>
       </c>
       <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -608,6 +634,7 @@
         </is>
       </c>
       <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -616,6 +643,7 @@
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -624,6 +652,7 @@
         </is>
       </c>
       <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -632,6 +661,7 @@
         </is>
       </c>
       <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -640,6 +670,7 @@
         </is>
       </c>
       <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -648,6 +679,7 @@
         </is>
       </c>
       <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -656,6 +688,7 @@
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -664,6 +697,7 @@
         </is>
       </c>
       <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -672,6 +706,7 @@
         </is>
       </c>
       <c r="B31" t="inlineStr"/>
+      <c r="C31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -680,6 +715,7 @@
         </is>
       </c>
       <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -688,6 +724,7 @@
         </is>
       </c>
       <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -696,6 +733,7 @@
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -704,6 +742,7 @@
         </is>
       </c>
       <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -712,6 +751,7 @@
         </is>
       </c>
       <c r="B36" t="inlineStr"/>
+      <c r="C36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -720,6 +760,7 @@
         </is>
       </c>
       <c r="B37" t="inlineStr"/>
+      <c r="C37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -728,6 +769,7 @@
         </is>
       </c>
       <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -736,6 +778,7 @@
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
+      <c r="C39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -744,6 +787,7 @@
         </is>
       </c>
       <c r="B40" t="inlineStr"/>
+      <c r="C40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -752,6 +796,7 @@
         </is>
       </c>
       <c r="B41" t="inlineStr"/>
+      <c r="C41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -760,6 +805,7 @@
         </is>
       </c>
       <c r="B42" t="inlineStr"/>
+      <c r="C42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -768,6 +814,7 @@
         </is>
       </c>
       <c r="B43" t="inlineStr"/>
+      <c r="C43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -776,6 +823,7 @@
         </is>
       </c>
       <c r="B44" t="inlineStr"/>
+      <c r="C44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -786,6 +834,7 @@
       <c r="B45" t="n">
         <v>1</v>
       </c>
+      <c r="C45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -794,6 +843,7 @@
         </is>
       </c>
       <c r="B46" t="inlineStr"/>
+      <c r="C46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -802,6 +852,7 @@
         </is>
       </c>
       <c r="B47" t="inlineStr"/>
+      <c r="C47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -810,6 +861,7 @@
         </is>
       </c>
       <c r="B48" t="inlineStr"/>
+      <c r="C48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -818,6 +870,7 @@
         </is>
       </c>
       <c r="B49" t="inlineStr"/>
+      <c r="C49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -826,6 +879,7 @@
         </is>
       </c>
       <c r="B50" t="inlineStr"/>
+      <c r="C50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -834,6 +888,7 @@
         </is>
       </c>
       <c r="B51" t="inlineStr"/>
+      <c r="C51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -842,6 +897,7 @@
         </is>
       </c>
       <c r="B52" t="inlineStr"/>
+      <c r="C52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -850,6 +906,7 @@
         </is>
       </c>
       <c r="B53" t="inlineStr"/>
+      <c r="C53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -858,6 +915,7 @@
         </is>
       </c>
       <c r="B54" t="inlineStr"/>
+      <c r="C54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -866,6 +924,7 @@
         </is>
       </c>
       <c r="B55" t="inlineStr"/>
+      <c r="C55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -874,6 +933,7 @@
         </is>
       </c>
       <c r="B56" t="inlineStr"/>
+      <c r="C56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -882,6 +942,7 @@
         </is>
       </c>
       <c r="B57" t="inlineStr"/>
+      <c r="C57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -890,6 +951,7 @@
         </is>
       </c>
       <c r="B58" t="inlineStr"/>
+      <c r="C58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -898,6 +960,46 @@
         </is>
       </c>
       <c r="B59" t="inlineStr"/>
+      <c r="C59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>MSHNet</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr"/>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>IRDST</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>DNANet</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr"/>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>IRDST</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>MSHNet</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr"/>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>NUDT-MIRSDT</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/finish.xlsx
+++ b/finish.xlsx
@@ -1,37 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="finish"/>
+    <sheet name="finish" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -49,25 +46,81 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -76,10 +129,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -117,71 +170,69 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -205,53 +256,54 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="51000"/>
+                <a:shade val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
+                <a:shade val="93000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="94000"/>
+                <a:shade val="94000"/>
                 <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="9500"/>
+              <a:shade val="95000"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -261,7 +313,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -270,7 +322,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -279,7 +331,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -287,10 +339,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -319,7 +371,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="20000"/>
+                <a:shade val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -332,12 +384,13 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
                 <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
+                <a:shade val="30000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -355,21 +408,92 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
-    <outlinePr summaryBelow="0"/>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" style="1" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="1" width="12.43357142857143" customWidth="1" bestFit="1"/>
-  </cols>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>dataset</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>model</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>IRDST</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>DNANet</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>IRDST</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>res_UNet</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>IRDST</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>ISTDU-Net</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>IRDST</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>L2SKNet</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>IRDST</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>MSHNet</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/finish.xlsx
+++ b/finish.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,6 +493,222 @@
         </is>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>NUDT-MIRSDT</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>DNANet</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>NUDT-MIRSDT</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>res_UNet</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>NUDT-MIRSDT</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>ISTDU-Net</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>NUDT-MIRSDT</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>L2SKNet</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>NUDT-MIRSDT</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>MSHNet</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>IRDST</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>DTUM+DNANet</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>IRDST</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>DTUM+res_UNet</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>IRDST</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>DTUM+ISTDU-Net</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>IRDST</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>DTUM+L2SKNet</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>IRDST</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>DTUM+MSHNet</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>IRDST</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>DTUM+res_UNet</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>NUDT-MIRSDT</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>DTUM+res_UNet</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>NUDT-MIRSDT</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>DTUM+L2SKNet</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>NUDT-MIRSDT</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>DTUM+MSHNet</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>IRDST</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>RFR+DNANet</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>IRDST</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>RFR+res_UNet</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>IRDST</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>RFR+ISTDU-Net</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>IRDST</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>RFR+L2SKNet</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/finish.xlsx
+++ b/finish.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -709,6 +709,54 @@
         </is>
       </c>
     </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>IRDST</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>RFR+MSHNet</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>IRDST</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>RFR+res_UNet</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>NUDT-MIRSDT</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>RFR+res_UNet</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>NUDT-MIRSDT</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>RFR+L2SKNet</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
